--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F2-Gp1ba.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F2-Gp1ba.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H2">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I2">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J2">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.156565</v>
+        <v>2.560821</v>
       </c>
       <c r="N2">
-        <v>3.469695</v>
+        <v>7.682463</v>
       </c>
       <c r="O2">
-        <v>0.1114986879114226</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="P2">
-        <v>0.1114986879114225</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="Q2">
-        <v>0.4782538918016668</v>
+        <v>1.827727943474</v>
       </c>
       <c r="R2">
-        <v>4.304285026215001</v>
+        <v>16.449551491266</v>
       </c>
       <c r="S2">
-        <v>0.02365005541651134</v>
+        <v>0.08794980583237097</v>
       </c>
       <c r="T2">
-        <v>0.02365005541651134</v>
+        <v>0.08794980583237097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H3">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I3">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J3">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.854032</v>
       </c>
       <c r="O3">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="P3">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="Q3">
-        <v>0.6690673661315557</v>
+        <v>1.154818438424889</v>
       </c>
       <c r="R3">
-        <v>6.021606295184001</v>
+        <v>10.393365945824</v>
       </c>
       <c r="S3">
-        <v>0.03308594150019509</v>
+        <v>0.05556957083999172</v>
       </c>
       <c r="T3">
-        <v>0.03308594150019508</v>
+        <v>0.05556957083999173</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H4">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I4">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J4">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.322726666666667</v>
+        <v>0.7202793333333334</v>
       </c>
       <c r="N4">
-        <v>3.96818</v>
+        <v>2.160838</v>
       </c>
       <c r="O4">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="P4">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="Q4">
-        <v>0.5469637902955556</v>
+        <v>0.5140830478351112</v>
       </c>
       <c r="R4">
-        <v>4.922674112660001</v>
+        <v>4.626747430516001</v>
       </c>
       <c r="S4">
-        <v>0.02704781743141457</v>
+        <v>0.02473754608843659</v>
       </c>
       <c r="T4">
-        <v>0.02704781743141457</v>
+        <v>0.02473754608843659</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H5">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I5">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J5">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.319272333333333</v>
+        <v>1.309726333333333</v>
       </c>
       <c r="N5">
-        <v>6.957816999999999</v>
+        <v>3.929179</v>
       </c>
       <c r="O5">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="P5">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="Q5">
-        <v>0.9590477141921112</v>
+        <v>0.9347874832864445</v>
       </c>
       <c r="R5">
-        <v>8.631429427729001</v>
+        <v>8.413087349578001</v>
       </c>
       <c r="S5">
-        <v>0.04742571252745405</v>
+        <v>0.04498173699380388</v>
       </c>
       <c r="T5">
-        <v>0.04742571252745405</v>
+        <v>0.04498173699380388</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H6">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I6">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J6">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.741087</v>
+        <v>2.880229333333334</v>
       </c>
       <c r="N6">
-        <v>8.223261000000001</v>
+        <v>8.640688000000001</v>
       </c>
       <c r="O6">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="P6">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="Q6">
-        <v>1.133473281239667</v>
+        <v>2.055698401468445</v>
       </c>
       <c r="R6">
-        <v>10.201259531157</v>
+        <v>18.501285613216</v>
       </c>
       <c r="S6">
-        <v>0.05605120287357721</v>
+        <v>0.09891968654559063</v>
       </c>
       <c r="T6">
-        <v>0.05605120287357721</v>
+        <v>0.09891968654559063</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H7">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I7">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J7">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.215240666666667</v>
+        <v>1.024174</v>
       </c>
       <c r="N7">
-        <v>3.645722</v>
+        <v>3.072522</v>
       </c>
       <c r="O7">
-        <v>0.1171553175393824</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="P7">
-        <v>0.1171553175393823</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="Q7">
-        <v>0.5025170036348889</v>
+        <v>0.7309809778893334</v>
       </c>
       <c r="R7">
-        <v>4.522653032714001</v>
+        <v>6.578828801004</v>
       </c>
       <c r="S7">
-        <v>0.02484988661343275</v>
+        <v>0.03517461956089969</v>
       </c>
       <c r="T7">
-        <v>0.02484988661343275</v>
+        <v>0.03517461956089969</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.811317</v>
       </c>
       <c r="I8">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J8">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.156565</v>
+        <v>2.560821</v>
       </c>
       <c r="N8">
-        <v>3.469695</v>
+        <v>7.682463</v>
       </c>
       <c r="O8">
-        <v>0.1114986879114226</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="P8">
-        <v>0.1114986879114225</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="Q8">
-        <v>0.6983019487016667</v>
+        <v>1.546152870419</v>
       </c>
       <c r="R8">
-        <v>6.284717538315</v>
+        <v>13.915375833771</v>
       </c>
       <c r="S8">
-        <v>0.03453161608792731</v>
+        <v>0.07440048461591434</v>
       </c>
       <c r="T8">
-        <v>0.0345316160879273</v>
+        <v>0.07440048461591434</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.811317</v>
       </c>
       <c r="I9">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J9">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.854032</v>
       </c>
       <c r="O9">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="P9">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="Q9">
         <v>0.9769100755715556</v>
@@ -1013,10 +1013,10 @@
         <v>8.792190680144001</v>
       </c>
       <c r="S9">
-        <v>0.04830902125475408</v>
+        <v>0.0470086654685035</v>
       </c>
       <c r="T9">
-        <v>0.04830902125475407</v>
+        <v>0.04700866546850351</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.811317</v>
       </c>
       <c r="I10">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J10">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.322726666666667</v>
+        <v>0.7202793333333334</v>
       </c>
       <c r="N10">
-        <v>3.96818</v>
+        <v>2.160838</v>
       </c>
       <c r="O10">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="P10">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="Q10">
-        <v>0.7986257658955556</v>
+        <v>0.4348847337384445</v>
       </c>
       <c r="R10">
-        <v>7.18763189306</v>
+        <v>3.913962603646</v>
       </c>
       <c r="S10">
-        <v>0.03949271285452795</v>
+        <v>0.02092654326828298</v>
       </c>
       <c r="T10">
-        <v>0.03949271285452795</v>
+        <v>0.02092654326828298</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.811317</v>
       </c>
       <c r="I11">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J11">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.319272333333333</v>
+        <v>1.309726333333333</v>
       </c>
       <c r="N11">
-        <v>6.957816999999999</v>
+        <v>3.929179</v>
       </c>
       <c r="O11">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="P11">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="Q11">
-        <v>1.400312468332111</v>
+        <v>0.7907765243047779</v>
       </c>
       <c r="R11">
-        <v>12.602812214989</v>
+        <v>7.116988718743</v>
       </c>
       <c r="S11">
-        <v>0.06924662411366246</v>
+        <v>0.03805196611329904</v>
       </c>
       <c r="T11">
-        <v>0.06924662411366245</v>
+        <v>0.03805196611329904</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.811317</v>
       </c>
       <c r="I12">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J12">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.741087</v>
+        <v>2.880229333333334</v>
       </c>
       <c r="N12">
-        <v>8.223261000000001</v>
+        <v>8.640688000000001</v>
       </c>
       <c r="O12">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="P12">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="Q12">
-        <v>1.654992493859667</v>
+        <v>1.739002785121778</v>
       </c>
       <c r="R12">
-        <v>14.894932444737</v>
+        <v>15.651025066096</v>
       </c>
       <c r="S12">
-        <v>0.08184076463286402</v>
+        <v>0.08368037367897713</v>
       </c>
       <c r="T12">
-        <v>0.08184076463286402</v>
+        <v>0.08368037367897713</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.811317</v>
       </c>
       <c r="I13">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J13">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.215240666666667</v>
+        <v>1.024174</v>
       </c>
       <c r="N13">
-        <v>3.645722</v>
+        <v>3.072522</v>
       </c>
       <c r="O13">
-        <v>0.1171553175393824</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="P13">
-        <v>0.1171553175393823</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="Q13">
-        <v>0.7337286928748888</v>
+        <v>0.6183679257193333</v>
       </c>
       <c r="R13">
-        <v>6.603558235874001</v>
+        <v>5.565311331474</v>
       </c>
       <c r="S13">
-        <v>0.03628349825195312</v>
+        <v>0.02975570800576043</v>
       </c>
       <c r="T13">
-        <v>0.03628349825195312</v>
+        <v>0.02975570800576044</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H14">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I14">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J14">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.156565</v>
+        <v>2.560821</v>
       </c>
       <c r="N14">
-        <v>3.469695</v>
+        <v>7.682463</v>
       </c>
       <c r="O14">
-        <v>0.1114986879114226</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="P14">
-        <v>0.1114986879114225</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="Q14">
-        <v>0.3483465833933334</v>
+        <v>0.238174278747</v>
       </c>
       <c r="R14">
-        <v>3.13511925054</v>
+        <v>2.143568508723</v>
       </c>
       <c r="S14">
-        <v>0.01722603023755679</v>
+        <v>0.01146088598407514</v>
       </c>
       <c r="T14">
-        <v>0.01722603023755679</v>
+        <v>0.01146088598407514</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H15">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I15">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J15">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.854032</v>
       </c>
       <c r="O15">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="P15">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="Q15">
-        <v>0.4873297113671111</v>
+        <v>0.1504863180746667</v>
       </c>
       <c r="R15">
-        <v>4.385967402304001</v>
+        <v>1.354376862672</v>
       </c>
       <c r="S15">
-        <v>0.02409886229367949</v>
+        <v>0.007241363520403838</v>
       </c>
       <c r="T15">
-        <v>0.02409886229367948</v>
+        <v>0.007241363520403839</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H16">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I16">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J16">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.322726666666667</v>
+        <v>0.7202793333333334</v>
       </c>
       <c r="N16">
-        <v>3.96818</v>
+        <v>2.160838</v>
       </c>
       <c r="O16">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="P16">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="Q16">
-        <v>0.3983929265511111</v>
+        <v>0.06699101995533334</v>
       </c>
       <c r="R16">
-        <v>3.58553633896</v>
+        <v>0.602919179598</v>
       </c>
       <c r="S16">
-        <v>0.01970086381312135</v>
+        <v>0.00322359091713907</v>
       </c>
       <c r="T16">
-        <v>0.01970086381312135</v>
+        <v>0.003223590917139069</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H17">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I17">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J17">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.319272333333333</v>
+        <v>1.309726333333333</v>
       </c>
       <c r="N17">
-        <v>6.957816999999999</v>
+        <v>3.929179</v>
       </c>
       <c r="O17">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="P17">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="Q17">
-        <v>0.6985431802582222</v>
+        <v>0.1218137170843333</v>
       </c>
       <c r="R17">
-        <v>6.286888622324</v>
+        <v>1.096323453759</v>
       </c>
       <c r="S17">
-        <v>0.03454354519039473</v>
+        <v>0.005861645221073292</v>
       </c>
       <c r="T17">
-        <v>0.03454354519039473</v>
+        <v>0.005861645221073291</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H18">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I18">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J18">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.741087</v>
+        <v>2.880229333333334</v>
       </c>
       <c r="N18">
-        <v>8.223261000000001</v>
+        <v>8.640688000000001</v>
       </c>
       <c r="O18">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="P18">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="Q18">
-        <v>0.8255898209213334</v>
+        <v>0.2678814896053334</v>
       </c>
       <c r="R18">
-        <v>7.430308388292001</v>
+        <v>2.410933406448001</v>
       </c>
       <c r="S18">
-        <v>0.04082610795396179</v>
+        <v>0.01289038944827542</v>
       </c>
       <c r="T18">
-        <v>0.04082610795396179</v>
+        <v>0.01289038944827541</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H19">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I19">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J19">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.215240666666667</v>
+        <v>1.024174</v>
       </c>
       <c r="N19">
-        <v>3.645722</v>
+        <v>3.072522</v>
       </c>
       <c r="O19">
-        <v>0.1171553175393824</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="P19">
-        <v>0.1171553175393823</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="Q19">
-        <v>0.3660191465537778</v>
+        <v>0.095255351218</v>
       </c>
       <c r="R19">
-        <v>3.294172318984</v>
+        <v>0.857298160962</v>
       </c>
       <c r="S19">
-        <v>0.01809995328399932</v>
+        <v>0.004583663380554195</v>
       </c>
       <c r="T19">
-        <v>0.01809995328399931</v>
+        <v>0.004583663380554195</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H20">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I20">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J20">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.156565</v>
+        <v>2.560821</v>
       </c>
       <c r="N20">
-        <v>3.469695</v>
+        <v>7.682463</v>
       </c>
       <c r="O20">
-        <v>0.1114986879114226</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="P20">
-        <v>0.1114986879114225</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="Q20">
-        <v>0.4910848239116667</v>
+        <v>0.6762914859250001</v>
       </c>
       <c r="R20">
-        <v>4.419763415205001</v>
+        <v>6.086623373325</v>
       </c>
       <c r="S20">
-        <v>0.02428455575335928</v>
+        <v>0.03254297505575972</v>
       </c>
       <c r="T20">
-        <v>0.02428455575335928</v>
+        <v>0.03254297505575972</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H21">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I21">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J21">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.854032</v>
       </c>
       <c r="O21">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="P21">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="Q21">
-        <v>0.6870175764675556</v>
+        <v>0.4273031336444444</v>
       </c>
       <c r="R21">
-        <v>6.183158188208</v>
+        <v>3.8457282028</v>
       </c>
       <c r="S21">
-        <v>0.03397359443195729</v>
+        <v>0.02056171859153236</v>
       </c>
       <c r="T21">
-        <v>0.03397359443195729</v>
+        <v>0.02056171859153236</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H22">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I22">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J22">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.322726666666667</v>
+        <v>0.7202793333333334</v>
       </c>
       <c r="N22">
-        <v>3.96818</v>
+        <v>2.160838</v>
       </c>
       <c r="O22">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="P22">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="Q22">
-        <v>0.5616381199355556</v>
+        <v>0.1902197696055556</v>
       </c>
       <c r="R22">
-        <v>5.05474307942</v>
+        <v>1.71197792645</v>
       </c>
       <c r="S22">
-        <v>0.02777347531969386</v>
+        <v>0.009153327146975875</v>
       </c>
       <c r="T22">
-        <v>0.02777347531969386</v>
+        <v>0.009153327146975875</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H23">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I23">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J23">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.319272333333333</v>
+        <v>1.309726333333333</v>
       </c>
       <c r="N23">
-        <v>6.957816999999999</v>
+        <v>3.929179</v>
       </c>
       <c r="O23">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="P23">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="Q23">
-        <v>0.9847777214581112</v>
+        <v>0.3458878102472222</v>
       </c>
       <c r="R23">
-        <v>8.862999493122999</v>
+        <v>3.112990292225</v>
       </c>
       <c r="S23">
-        <v>0.04869808293183435</v>
+        <v>0.01664403384521538</v>
       </c>
       <c r="T23">
-        <v>0.04869808293183434</v>
+        <v>0.01664403384521538</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H24">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I24">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J24">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.741087</v>
+        <v>2.880229333333334</v>
       </c>
       <c r="N24">
-        <v>8.223261000000001</v>
+        <v>8.640688000000001</v>
       </c>
       <c r="O24">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="P24">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="Q24">
-        <v>1.163882900417667</v>
+        <v>0.7606445650222223</v>
       </c>
       <c r="R24">
-        <v>10.474946103759</v>
+        <v>6.845801085200001</v>
       </c>
       <c r="S24">
-        <v>0.05755498400548895</v>
+        <v>0.03660202386247774</v>
       </c>
       <c r="T24">
-        <v>0.05755498400548895</v>
+        <v>0.03660202386247774</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H25">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I25">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J25">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.215240666666667</v>
+        <v>1.024174</v>
       </c>
       <c r="N25">
-        <v>3.645722</v>
+        <v>3.072522</v>
       </c>
       <c r="O25">
-        <v>0.1171553175393824</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="P25">
-        <v>0.1171553175393823</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="Q25">
-        <v>0.5159988835908889</v>
+        <v>0.2704758186166666</v>
       </c>
       <c r="R25">
-        <v>4.643989952318</v>
+        <v>2.43428236755</v>
       </c>
       <c r="S25">
-        <v>0.02551657686633796</v>
+        <v>0.01301522790337851</v>
       </c>
       <c r="T25">
-        <v>0.02551657686633796</v>
+        <v>0.01301522790337851</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H26">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I26">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J26">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.156565</v>
+        <v>2.560821</v>
       </c>
       <c r="N26">
-        <v>3.469695</v>
+        <v>7.682463</v>
       </c>
       <c r="O26">
-        <v>0.1114986879114226</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="P26">
-        <v>0.1114986879114225</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="Q26">
-        <v>0.08600294444333334</v>
+        <v>0.5405013915790001</v>
       </c>
       <c r="R26">
-        <v>0.7740264999900001</v>
+        <v>4.864512524211</v>
       </c>
       <c r="S26">
-        <v>0.004252917617472258</v>
+        <v>0.02600879009987932</v>
       </c>
       <c r="T26">
-        <v>0.004252917617472258</v>
+        <v>0.02600879009987932</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H27">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I27">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J27">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.854032</v>
       </c>
       <c r="O27">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="P27">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="Q27">
-        <v>0.1203163518471111</v>
+        <v>0.3415065000337778</v>
       </c>
       <c r="R27">
-        <v>1.082847166624</v>
+        <v>3.073558500304</v>
       </c>
       <c r="S27">
-        <v>0.005949744345994129</v>
+        <v>0.01643320630715663</v>
       </c>
       <c r="T27">
-        <v>0.005949744345994128</v>
+        <v>0.01643320630715663</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H28">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I28">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J28">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.322726666666667</v>
+        <v>0.7202793333333334</v>
       </c>
       <c r="N28">
-        <v>3.96818</v>
+        <v>2.160838</v>
       </c>
       <c r="O28">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="P28">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="Q28">
-        <v>0.09835883675111111</v>
+        <v>0.1520262376762223</v>
       </c>
       <c r="R28">
-        <v>0.88522953076</v>
+        <v>1.368236139086</v>
       </c>
       <c r="S28">
-        <v>0.004863926838324712</v>
+        <v>0.0073154640617004</v>
       </c>
       <c r="T28">
-        <v>0.004863926838324712</v>
+        <v>0.007315464061700399</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H29">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I29">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J29">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.319272333333333</v>
+        <v>1.309726333333333</v>
       </c>
       <c r="N29">
-        <v>6.957816999999999</v>
+        <v>3.929179</v>
       </c>
       <c r="O29">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="P29">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="Q29">
-        <v>0.1724626368882222</v>
+        <v>0.2764382616958889</v>
       </c>
       <c r="R29">
-        <v>1.552163731994</v>
+        <v>2.487944355263</v>
       </c>
       <c r="S29">
-        <v>0.008528421806080353</v>
+        <v>0.0133021391545724</v>
       </c>
       <c r="T29">
-        <v>0.008528421806080351</v>
+        <v>0.0133021391545724</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H30">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I30">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J30">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.741087</v>
+        <v>2.880229333333334</v>
       </c>
       <c r="N30">
-        <v>8.223261000000001</v>
+        <v>8.640688000000001</v>
       </c>
       <c r="O30">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="P30">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="Q30">
-        <v>0.2038290567113334</v>
+        <v>0.607917524392889</v>
       </c>
       <c r="R30">
-        <v>1.834461510402</v>
+        <v>5.471257719536001</v>
       </c>
       <c r="S30">
-        <v>0.01007951753107191</v>
+        <v>0.02925283734012726</v>
       </c>
       <c r="T30">
-        <v>0.01007951753107191</v>
+        <v>0.02925283734012725</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H31">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I31">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J31">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.215240666666667</v>
+        <v>1.024174</v>
       </c>
       <c r="N31">
-        <v>3.645722</v>
+        <v>3.072522</v>
       </c>
       <c r="O31">
-        <v>0.1171553175393824</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="P31">
-        <v>0.1171553175393823</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="Q31">
-        <v>0.09036610613377778</v>
+        <v>0.2161679680926667</v>
       </c>
       <c r="R31">
-        <v>0.8132949552040001</v>
+        <v>1.945511712834</v>
       </c>
       <c r="S31">
-        <v>0.004468679616567507</v>
+        <v>0.01040194788771015</v>
       </c>
       <c r="T31">
-        <v>0.004468679616567506</v>
+        <v>0.01040194788771015</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H32">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I32">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J32">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.156565</v>
+        <v>2.560821</v>
       </c>
       <c r="N32">
-        <v>3.469695</v>
+        <v>7.682463</v>
       </c>
       <c r="O32">
-        <v>0.1114986879114226</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="P32">
-        <v>0.1114986879114225</v>
+        <v>0.2532146800817753</v>
       </c>
       <c r="Q32">
-        <v>0.1527479250716667</v>
+        <v>0.4333301791220001</v>
       </c>
       <c r="R32">
-        <v>1.374731325645</v>
+        <v>3.899971612098001</v>
       </c>
       <c r="S32">
-        <v>0.007553512798595586</v>
+        <v>0.02085173849377578</v>
       </c>
       <c r="T32">
-        <v>0.007553512798595586</v>
+        <v>0.02085173849377577</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H33">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I33">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J33">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>4.854032</v>
       </c>
       <c r="O33">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="P33">
-        <v>0.1559843730011019</v>
+        <v>0.1599893367513387</v>
       </c>
       <c r="Q33">
-        <v>0.2136912080835555</v>
+        <v>0.2737922142968889</v>
       </c>
       <c r="R33">
-        <v>1.923220872752</v>
+        <v>2.464129928672</v>
       </c>
       <c r="S33">
-        <v>0.01056720917452183</v>
+        <v>0.01317481202375064</v>
       </c>
       <c r="T33">
-        <v>0.01056720917452183</v>
+        <v>0.01317481202375064</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H34">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I34">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J34">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.322726666666667</v>
+        <v>0.7202793333333334</v>
       </c>
       <c r="N34">
-        <v>3.96818</v>
+        <v>2.160838</v>
       </c>
       <c r="O34">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="P34">
-        <v>0.1275175090019004</v>
+        <v>0.07122141725622931</v>
       </c>
       <c r="Q34">
-        <v>0.1746929517755555</v>
+        <v>0.1218823074831111</v>
       </c>
       <c r="R34">
-        <v>1.57223656598</v>
+        <v>1.096940767348</v>
       </c>
       <c r="S34">
-        <v>0.008638712744817924</v>
+        <v>0.005864945773694382</v>
       </c>
       <c r="T34">
-        <v>0.008638712744817926</v>
+        <v>0.005864945773694381</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H35">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I35">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J35">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.319272333333333</v>
+        <v>1.309726333333333</v>
       </c>
       <c r="N35">
-        <v>6.957816999999999</v>
+        <v>3.929179</v>
       </c>
       <c r="O35">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="P35">
-        <v>0.2235895276754269</v>
+        <v>0.1295060976498071</v>
       </c>
       <c r="Q35">
-        <v>0.3063070701541111</v>
+        <v>0.2216257780704445</v>
       </c>
       <c r="R35">
-        <v>2.756763631387</v>
+        <v>1.994632002634</v>
       </c>
       <c r="S35">
-        <v>0.01514714110600094</v>
+        <v>0.01066457632184306</v>
       </c>
       <c r="T35">
-        <v>0.01514714110600094</v>
+        <v>0.01066457632184306</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H36">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I36">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J36">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.741087</v>
+        <v>2.880229333333334</v>
       </c>
       <c r="N36">
-        <v>8.223261000000001</v>
+        <v>8.640688000000001</v>
       </c>
       <c r="O36">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="P36">
-        <v>0.264254584870766</v>
+        <v>0.2847978633423207</v>
       </c>
       <c r="Q36">
-        <v>0.3620162737856666</v>
+        <v>0.4873789667164446</v>
       </c>
       <c r="R36">
-        <v>3.258146464071</v>
+        <v>4.386410700448001</v>
       </c>
       <c r="S36">
-        <v>0.01790200787380214</v>
+        <v>0.02345255246687246</v>
       </c>
       <c r="T36">
-        <v>0.01790200787380215</v>
+        <v>0.02345255246687246</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H37">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I37">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J37">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.215240666666667</v>
+        <v>1.024174</v>
       </c>
       <c r="N37">
-        <v>3.645722</v>
+        <v>3.072522</v>
       </c>
       <c r="O37">
-        <v>0.1171553175393824</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="P37">
-        <v>0.1171553175393823</v>
+        <v>0.1012706049185289</v>
       </c>
       <c r="Q37">
-        <v>0.1604972399268889</v>
+        <v>0.1733059448013334</v>
       </c>
       <c r="R37">
-        <v>1.444475159342</v>
+        <v>1.559753503212</v>
       </c>
       <c r="S37">
-        <v>0.007936722907091688</v>
+        <v>0.008339438180225915</v>
       </c>
       <c r="T37">
-        <v>0.007936722907091688</v>
+        <v>0.008339438180225913</v>
       </c>
     </row>
   </sheetData>
